--- a/input/scenario_parametricMatching.xlsx
+++ b/input/scenario_parametricMatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4766C62D-9FA1-4F97-9E91-0CF5DA755FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E0061-935B-48EC-9C67-9064E5CB6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4050" windowWidth="27750" windowHeight="11130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -388,7 +386,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.19</v>
+        <v>1.997664543524416</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6.51</v>
+        <v>3.5955856795675567</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>29.95</v>
+        <v>22.576468464147236</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17.309999999999999</v>
+        <v>128.43670192455068</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.34</v>
+        <v>0.80599803083943655</v>
       </c>
     </row>
   </sheetData>
@@ -432,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F776AA79-ABB4-4A2A-AA34-CAA220F4565A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
